--- a/public/temp/sanitation-reports.xlsx
+++ b/public/temp/sanitation-reports.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,24 +422,143 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Dansoman Exhibition near PizzaWoman</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Ablekuma West</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0245444444</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45190.88071006945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>fsff</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0543212322</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45190.79242662037</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>dyy</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C4" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0543212322</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45190.63686556713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Vittings</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0543212323</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45189.673809224536</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>yendi</v>
       </c>
-      <c r="B2" t="str">
-        <v>Ablekuma North</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B6" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0286554567</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45189.5950959375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ffd</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0543122288</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45189.590885543985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>mkkk</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0543212322</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45185.415067800925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>zcv</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Ablekuma North</v>
+      </c>
+      <c r="C9" t="str">
         <v>Completed</v>
       </c>
-      <c r="D2" t="str">
-        <v>0286554567</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45189.5950959375</v>
+      <c r="D9" t="str">
+        <v>0543212322</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45184.956294791664</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>